--- a/config/forms/app/case_vaccination.xlsx
+++ b/config/forms/app/case_vaccination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4375DBF-4B69-42E6-B3D0-8CE2984B67B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25236C71-E900-4818-BD07-5B8BCF13C5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8362" uniqueCount="2300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8372" uniqueCount="2307">
   <si>
     <t>form_title</t>
   </si>
@@ -6898,9 +6898,6 @@
     <t>Travel</t>
   </si>
   <si>
-    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Record exposure information e.g. food, travel etc. You can submit this form multiple times for different exposures.&lt;/h4&gt;</t>
-  </si>
-  <si>
     <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak: ${outbreak_name}&lt;/h4&gt;</t>
   </si>
   <si>
@@ -6941,6 +6938,30 @@
   </si>
   <si>
     <t>cv_created</t>
+  </si>
+  <si>
+    <t>cv_dose_number</t>
+  </si>
+  <si>
+    <t>Dose Number</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>cv_date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>i.e. product name</t>
+  </si>
+  <si>
+    <t>e.g. 1: for first dose, 2: for second dose etc.</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document any vaccines the patient received for this disease or syndrome before or during the outbreak. &lt;/h4&gt;&lt;p&gt;This form can be filled multiple for each vaccine or vaccine dosage&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -7478,12 +7499,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A75" sqref="A75"/>
+      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8065,7 +8086,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -8317,7 +8338,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>30</v>
@@ -8326,7 +8347,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="21" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
@@ -8389,7 +8410,7 @@
         <v>2232</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8400,10 +8421,10 @@
         <v>2233</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>2287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="19" t="s">
         <v>74</v>
       </c>
@@ -8411,21 +8432,21 @@
         <v>2204</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B66" s="19" t="s">
+        <v>2288</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>2289</v>
       </c>
-      <c r="C66" s="19" t="s">
-        <v>2290</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="19" t="s">
         <v>74</v>
       </c>
@@ -8433,10 +8454,10 @@
         <v>2260</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
         <v>39</v>
       </c>
@@ -8444,12 +8465,12 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>30</v>
@@ -8458,82 +8479,116 @@
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>56</v>
       </c>
       <c r="B71" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C71" t="s">
         <v>2297</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2298</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
+      <c r="M71" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>2301</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2300</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72" t="s">
+        <v>2305</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2303</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>2296</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="18" t="s">
+      <c r="B74" s="8" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B74" s="18" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C74" s="18" t="s">
+      <c r="B76" s="18" t="s">
+        <v>2298</v>
+      </c>
+      <c r="C76" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H74" s="18" t="s">
+      <c r="H76" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>56</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" t="s">
         <v>2254</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
         <v>2256</v>
       </c>
-      <c r="E75" t="b">
+      <c r="E77" t="b">
         <v>1</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G77" t="s">
         <v>2181</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>47</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" t="s">
         <v>2255</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>2257</v>
       </c>
-      <c r="E76" t="b">
+      <c r="E78" t="b">
         <v>1</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G78" t="s">
         <v>2258</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="18" t="s">
+    <row r="79" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B77" s="18" t="s">
-        <v>2299</v>
+      <c r="B79" s="18" t="s">
+        <v>2298</v>
       </c>
     </row>
   </sheetData>
@@ -37313,10 +37368,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>2293</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2294</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2295</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>

--- a/config/forms/app/case_vaccination.xlsx
+++ b/config/forms/app/case_vaccination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25236C71-E900-4818-BD07-5B8BCF13C5B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD0B258-B07E-4B6F-A0B5-29607A3906D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8372" uniqueCount="2307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8372" uniqueCount="2306">
   <si>
     <t>form_title</t>
   </si>
@@ -6805,18 +6805,6 @@
     <t>../../../inputs/contact/parent/parent/_id</t>
   </si>
   <si>
-    <t>created_by</t>
-  </si>
-  <si>
-    <t>created_on</t>
-  </si>
-  <si>
-    <t>Created By</t>
-  </si>
-  <si>
-    <t>Created On</t>
-  </si>
-  <si>
     <t>today()</t>
   </si>
   <si>
@@ -6928,18 +6916,12 @@
     <t>case_vaccination</t>
   </si>
   <si>
-    <t>cv_prerequisites</t>
-  </si>
-  <si>
     <t>cv_name</t>
   </si>
   <si>
     <t>Vaccine Name</t>
   </si>
   <si>
-    <t>cv_created</t>
-  </si>
-  <si>
     <t>cv_dose_number</t>
   </si>
   <si>
@@ -6962,6 +6944,21 @@
   </si>
   <si>
     <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document any vaccines the patient received for this disease or syndrome before or during the outbreak. &lt;/h4&gt;&lt;p&gt;This form can be filled multiple for each vaccine or vaccine dosage&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cv_reported</t>
+  </si>
+  <si>
+    <t>reported_by</t>
+  </si>
+  <si>
+    <t>reported_on</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
   </si>
 </sst>
 </file>
@@ -7502,9 +7499,9 @@
   <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C63" sqref="C63"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8086,7 +8083,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>2292</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -8338,7 +8335,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>2290</v>
+        <v>2286</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>30</v>
@@ -8347,7 +8344,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="21" t="s">
-        <v>2291</v>
+        <v>2287</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
@@ -8410,7 +8407,7 @@
         <v>2232</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>2285</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8421,7 +8418,7 @@
         <v>2233</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>2286</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8432,7 +8429,7 @@
         <v>2204</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>2287</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8440,10 +8437,10 @@
         <v>74</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>2288</v>
+        <v>2284</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>2289</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8451,10 +8448,10 @@
         <v>74</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>2260</v>
+        <v>2256</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>2306</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -8470,7 +8467,7 @@
         <v>28</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>30</v>
@@ -8484,33 +8481,33 @@
         <v>56</v>
       </c>
       <c r="B71" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
       <c r="C71" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
       </c>
       <c r="M71" t="s">
-        <v>2304</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>2301</v>
+        <v>2295</v>
       </c>
       <c r="B72" t="s">
-        <v>2299</v>
+        <v>2293</v>
       </c>
       <c r="C72" t="s">
-        <v>2300</v>
+        <v>2294</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
       </c>
       <c r="M72" t="s">
-        <v>2305</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
@@ -8518,10 +8515,10 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>2302</v>
+        <v>2296</v>
       </c>
       <c r="C73" t="s">
-        <v>2303</v>
+        <v>2297</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -8532,7 +8529,7 @@
         <v>39</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -8540,7 +8537,7 @@
         <v>28</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>30</v>
@@ -8554,10 +8551,10 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>2254</v>
+        <v>2302</v>
       </c>
       <c r="C77" t="s">
-        <v>2256</v>
+        <v>2304</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -8571,16 +8568,16 @@
         <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>2255</v>
+        <v>2303</v>
       </c>
       <c r="C78" t="s">
-        <v>2257</v>
+        <v>2305</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>2258</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -8588,7 +8585,7 @@
         <v>39</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
     </row>
   </sheetData>
@@ -8723,29 +8720,29 @@
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>2262</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>2283</v>
+        <v>2279</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>2284</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>2259</v>
+        <v>2255</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>150</v>
@@ -8757,62 +8754,62 @@
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>2266</v>
+        <v>2262</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>2264</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
+        <v>2259</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>2263</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>2273</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>2267</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>2271</v>
+        <v>2267</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>2272</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>2269</v>
+        <v>2265</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>2268</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>2263</v>
+        <v>2259</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>150</v>
@@ -8824,62 +8821,62 @@
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>2279</v>
+        <v>2275</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>2275</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>2280</v>
+        <v>2276</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>2276</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>2281</v>
+        <v>2277</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>2277</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
+        <v>2270</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C29" s="20" t="s">
         <v>2274</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>2282</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>2278</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>2270</v>
+        <v>2266</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>2265</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
-        <v>2274</v>
+        <v>2270</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>150</v>
@@ -37368,10 +37365,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2293</v>
+        <v>2289</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2294</v>
+        <v>2290</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>

--- a/config/forms/app/case_vaccination.xlsx
+++ b/config/forms/app/case_vaccination.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD0B258-B07E-4B6F-A0B5-29607A3906D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F071064-AAC4-4C74-BA58-A3BDCB27B607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -6805,160 +6805,160 @@
     <t>../../../inputs/contact/parent/parent/_id</t>
   </si>
   <si>
+    <t>case_exposure</t>
+  </si>
+  <si>
+    <t>case_exposure_title</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>toilet_type</t>
+  </si>
+  <si>
+    <t>Water sealed</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>water_sealed</t>
+  </si>
+  <si>
+    <t>Traditional</t>
+  </si>
+  <si>
+    <t>Dug hole</t>
+  </si>
+  <si>
+    <t>dug_hole</t>
+  </si>
+  <si>
+    <t>river</t>
+  </si>
+  <si>
+    <t>forest</t>
+  </si>
+  <si>
+    <t>Forest or bushes</t>
+  </si>
+  <si>
+    <t>traditional</t>
+  </si>
+  <si>
+    <t>water_source</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>Distilled</t>
+  </si>
+  <si>
+    <t>Drilled water</t>
+  </si>
+  <si>
+    <t>Piped water</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>distiller</t>
+  </si>
+  <si>
+    <t>borehole</t>
+  </si>
+  <si>
+    <t>piped</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>Travel</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak: ${outbreak_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak Location: ${outbreak_location_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case Name: ${ci_case_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>case_id_title</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case ID: ${ci_case_id}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>outbreak_location_name</t>
+  </si>
+  <si>
+    <t>../outbreak_location/name</t>
+  </si>
+  <si>
+    <t>Outbreak Location Name</t>
+  </si>
+  <si>
+    <t>Case Vaccination</t>
+  </si>
+  <si>
+    <t>case_vaccination</t>
+  </si>
+  <si>
+    <t>cv_name</t>
+  </si>
+  <si>
+    <t>Vaccine Name</t>
+  </si>
+  <si>
+    <t>cv_dose_number</t>
+  </si>
+  <si>
+    <t>Dose Number</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>cv_date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>i.e. product name</t>
+  </si>
+  <si>
+    <t>e.g. 1: for first dose, 2: for second dose etc.</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document any vaccines the patient received for this disease or syndrome before or during the outbreak. &lt;/h4&gt;&lt;p&gt;This form can be filled multiple for each vaccine or vaccine dosage&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>cv_reported</t>
+  </si>
+  <si>
+    <t>reported_by</t>
+  </si>
+  <si>
+    <t>reported_on</t>
+  </si>
+  <si>
+    <t>Reported By</t>
+  </si>
+  <si>
+    <t>Reported On</t>
+  </si>
+  <si>
     <t>today()</t>
-  </si>
-  <si>
-    <t>case_exposure</t>
-  </si>
-  <si>
-    <t>case_exposure_title</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>Food</t>
-  </si>
-  <si>
-    <t>toilet_type</t>
-  </si>
-  <si>
-    <t>Water sealed</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>water_sealed</t>
-  </si>
-  <si>
-    <t>Traditional</t>
-  </si>
-  <si>
-    <t>Dug hole</t>
-  </si>
-  <si>
-    <t>dug_hole</t>
-  </si>
-  <si>
-    <t>river</t>
-  </si>
-  <si>
-    <t>forest</t>
-  </si>
-  <si>
-    <t>Forest or bushes</t>
-  </si>
-  <si>
-    <t>traditional</t>
-  </si>
-  <si>
-    <t>water_source</t>
-  </si>
-  <si>
-    <t>Well</t>
-  </si>
-  <si>
-    <t>Distilled</t>
-  </si>
-  <si>
-    <t>Drilled water</t>
-  </si>
-  <si>
-    <t>Piped water</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>distiller</t>
-  </si>
-  <si>
-    <t>borehole</t>
-  </si>
-  <si>
-    <t>piped</t>
-  </si>
-  <si>
-    <t>travel</t>
-  </si>
-  <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak: ${outbreak_name}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak Location: ${outbreak_location_name}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case Name: ${ci_case_name}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>case_id_title</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="border-bottom: rgb(200,200,200) dotted 1px; padding: 5px 0; font-weight: 400;"&gt;Case ID: ${ci_case_id}&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>outbreak_location_name</t>
-  </si>
-  <si>
-    <t>../outbreak_location/name</t>
-  </si>
-  <si>
-    <t>Outbreak Location Name</t>
-  </si>
-  <si>
-    <t>Case Vaccination</t>
-  </si>
-  <si>
-    <t>case_vaccination</t>
-  </si>
-  <si>
-    <t>cv_name</t>
-  </si>
-  <si>
-    <t>Vaccine Name</t>
-  </si>
-  <si>
-    <t>cv_dose_number</t>
-  </si>
-  <si>
-    <t>Dose Number</t>
-  </si>
-  <si>
-    <t>integer</t>
-  </si>
-  <si>
-    <t>cv_date</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>i.e. product name</t>
-  </si>
-  <si>
-    <t>e.g. 1: for first dose, 2: for second dose etc.</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document any vaccines the patient received for this disease or syndrome before or during the outbreak. &lt;/h4&gt;&lt;p&gt;This form can be filled multiple for each vaccine or vaccine dosage&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>cv_reported</t>
-  </si>
-  <si>
-    <t>reported_by</t>
-  </si>
-  <si>
-    <t>reported_on</t>
-  </si>
-  <si>
-    <t>Reported By</t>
-  </si>
-  <si>
-    <t>Reported On</t>
   </si>
 </sst>
 </file>
@@ -7501,7 +7501,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8083,7 +8083,7 @@
         <v>9</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="41" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -8335,7 +8335,7 @@
         <v>40</v>
       </c>
       <c r="B59" s="21" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>30</v>
@@ -8344,7 +8344,7 @@
       <c r="E59" s="16"/>
       <c r="F59" s="16"/>
       <c r="G59" s="21" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="H59" s="16"/>
       <c r="I59" s="16"/>
@@ -8407,7 +8407,7 @@
         <v>2232</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8418,7 +8418,7 @@
         <v>2233</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="65" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8429,7 +8429,7 @@
         <v>2204</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="66" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8437,10 +8437,10 @@
         <v>74</v>
       </c>
       <c r="B66" s="19" t="s">
+        <v>2283</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>2284</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>2285</v>
       </c>
     </row>
     <row r="67" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -8448,10 +8448,10 @@
         <v>74</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="68" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
@@ -8467,7 +8467,7 @@
         <v>28</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>30</v>
@@ -8481,33 +8481,33 @@
         <v>56</v>
       </c>
       <c r="B71" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C71" t="s">
         <v>2291</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2292</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
       </c>
       <c r="M71" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="B72" t="s">
+        <v>2292</v>
+      </c>
+      <c r="C72" t="s">
         <v>2293</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2294</v>
       </c>
       <c r="D72" t="s">
         <v>13</v>
       </c>
       <c r="M72" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
@@ -8515,10 +8515,10 @@
         <v>47</v>
       </c>
       <c r="B73" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C73" t="s">
         <v>2296</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2297</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -8529,7 +8529,7 @@
         <v>39</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="76" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -8537,7 +8537,7 @@
         <v>28</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>30</v>
@@ -8551,10 +8551,10 @@
         <v>56</v>
       </c>
       <c r="B77" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="C77" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -8568,16 +8568,16 @@
         <v>47</v>
       </c>
       <c r="B78" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="C78" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="G78" t="s">
-        <v>2254</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="79" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
@@ -8585,7 +8585,7 @@
         <v>39</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
   </sheetData>
@@ -8720,29 +8720,29 @@
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>2257</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>2258</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>2279</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>2280</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
-        <v>2255</v>
+        <v>2254</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>150</v>
@@ -8754,62 +8754,62 @@
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
+        <v>2258</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>2259</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>2262</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>2260</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C21" s="15" t="s">
         <v>2267</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>2268</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="15" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="15" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>2265</v>
+        <v>2264</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="15" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="B24" s="15" t="s">
         <v>150</v>
@@ -8821,62 +8821,62 @@
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15" t="s">
+        <v>2269</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>2274</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>2270</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>2275</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>2271</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="15" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="15" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="15" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="B31" s="15" t="s">
         <v>150</v>
@@ -37365,10 +37365,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2289</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2290</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>

--- a/config/forms/app/case_vaccination.xlsx
+++ b/config/forms/app/case_vaccination.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE544276-A432-4916-A6FD-F40F1018D9F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F03E13E-539A-4A4B-A71B-A6BE25C8B50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8394" uniqueCount="2309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8393" uniqueCount="2308">
   <si>
     <t>form_title</t>
   </si>
@@ -6889,33 +6889,18 @@
     <t>cv_name</t>
   </si>
   <si>
-    <t>Vaccine Name</t>
-  </si>
-  <si>
     <t>cv_dose_number</t>
   </si>
   <si>
-    <t>Dose Number</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
     <t>cv_date</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
     <t>i.e. product name</t>
   </si>
   <si>
-    <t>e.g. 1: for first dose, 2: for second dose etc.</t>
-  </si>
-  <si>
-    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document any vaccines the patient received for this disease or syndrome before or during the outbreak. &lt;/h4&gt;&lt;p&gt;This form can be filled multiple for each vaccine or vaccine dosage&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>cv_reported</t>
   </si>
   <si>
@@ -6968,6 +6953,18 @@
   </si>
   <si>
     <t>../cases_group/outbreak_location/ol_subcounty</t>
+  </si>
+  <si>
+    <t>Date of vaccination</t>
+  </si>
+  <si>
+    <t>Number of doses</t>
+  </si>
+  <si>
+    <t>Name of the vaccine</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document any vaccines the patient received for this disease or syndrome before or during the outbreak. &lt;/h4&gt;&lt;p&gt;This form can be filled multiple times for each vaccine or vaccine dosage&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -7501,7 +7498,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B80" sqref="B80"/>
+      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8125,7 +8122,7 @@
         <v>28</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>30</v>
@@ -8139,16 +8136,16 @@
         <v>37</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>2298</v>
+        <v>2293</v>
       </c>
       <c r="E44" s="11" t="b">
         <v>1</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>2299</v>
+        <v>2294</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>2300</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="45" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
@@ -8159,7 +8156,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>2301</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="47" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -8305,7 +8302,7 @@
         <v>39</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>2297</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -8369,7 +8366,7 @@
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="20" t="s">
-        <v>2302</v>
+        <v>2297</v>
       </c>
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
@@ -8392,7 +8389,7 @@
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="20" t="s">
-        <v>2303</v>
+        <v>2298</v>
       </c>
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
@@ -8415,7 +8412,7 @@
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="20" t="s">
-        <v>2304</v>
+        <v>2299</v>
       </c>
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
@@ -8438,7 +8435,7 @@
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="20" t="s">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
@@ -8461,7 +8458,7 @@
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="20" t="s">
-        <v>2306</v>
+        <v>2301</v>
       </c>
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
@@ -8484,7 +8481,7 @@
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="20" t="s">
-        <v>2307</v>
+        <v>2302</v>
       </c>
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
@@ -8507,7 +8504,7 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="20" t="s">
-        <v>2308</v>
+        <v>2303</v>
       </c>
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
@@ -8568,7 +8565,7 @@
         <v>2247</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>2290</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="78" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -8601,30 +8598,27 @@
         <v>2281</v>
       </c>
       <c r="C81" t="s">
-        <v>2282</v>
+        <v>2306</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
       </c>
       <c r="M81" t="s">
-        <v>2288</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="B82" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="C82" t="s">
-        <v>2284</v>
+        <v>2305</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
-      </c>
-      <c r="M82" t="s">
-        <v>2289</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
@@ -8632,10 +8626,10 @@
         <v>47</v>
       </c>
       <c r="B83" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="C83" t="s">
-        <v>2287</v>
+        <v>2304</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -8654,7 +8648,7 @@
         <v>28</v>
       </c>
       <c r="B86" s="17" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>30</v>
@@ -8668,10 +8662,10 @@
         <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="C87" t="s">
-        <v>2294</v>
+        <v>2289</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -8685,16 +8679,16 @@
         <v>47</v>
       </c>
       <c r="B88" t="s">
-        <v>2293</v>
+        <v>2288</v>
       </c>
       <c r="C88" t="s">
-        <v>2295</v>
+        <v>2290</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="G88" t="s">
-        <v>2296</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="89" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
@@ -8702,7 +8696,7 @@
         <v>39</v>
       </c>
       <c r="B89" s="17" t="s">
-        <v>2291</v>
+        <v>2286</v>
       </c>
     </row>
   </sheetData>

--- a/config/forms/app/case_vaccination.xlsx
+++ b/config/forms/app/case_vaccination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F03E13E-539A-4A4B-A71B-A6BE25C8B50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7867749B-7BB6-42FB-B402-DCCBC3395F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8393" uniqueCount="2308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8411" uniqueCount="2319">
   <si>
     <t>form_title</t>
   </si>
@@ -6965,13 +6965,46 @@
   </si>
   <si>
     <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document any vaccines the patient received for this disease or syndrome before or during the outbreak. &lt;/h4&gt;&lt;p&gt;This form can be filled multiple times for each vaccine or vaccine dosage&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>Disease Code</t>
+  </si>
+  <si>
+    <t>disease_name</t>
+  </si>
+  <si>
+    <t>Disease Name</t>
+  </si>
+  <si>
+    <t>outbreak_disease</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/outbreak/disease</t>
+  </si>
+  <si>
+    <t>outbreak_disease_name</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/outbreak/disease_name</t>
+  </si>
+  <si>
+    <t>case_disease_title</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0;"&gt;Disease: ${disease_name}&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>${disease_name} != ''</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7040,11 +7073,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -7150,7 +7178,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7167,11 +7195,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent1" xfId="6" builtinId="30"/>
@@ -7493,12 +7519,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8181,7 +8207,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="49" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11" t="s">
         <v>32</v>
       </c>
@@ -8192,7 +8218,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="50" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>32</v>
       </c>
@@ -8203,7 +8229,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="51" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11" t="s">
         <v>32</v>
       </c>
@@ -8214,8 +8240,8 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="52" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="13" t="s">
         <v>28</v>
       </c>
@@ -8226,7 +8252,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>32</v>
       </c>
@@ -8237,7 +8263,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="55" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11" t="s">
         <v>32</v>
       </c>
@@ -8248,7 +8274,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="56" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>32</v>
       </c>
@@ -8259,419 +8285,349 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="57" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>47</v>
+        <v>2308</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>2236</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.35">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>2310</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>2311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="11" t="s">
         <v>2225</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>2224</v>
       </c>
     </row>
-    <row r="59" spans="1:13" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B61" s="13" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="13" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63" s="13" t="s">
         <v>2292</v>
       </c>
     </row>
-    <row r="62" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="15" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>40</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B65" t="s">
         <v>2226</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C65" t="s">
         <v>30</v>
       </c>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15" t="s">
+      <c r="G65" t="s">
         <v>2227</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A64" s="15" t="s">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>40</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B66" t="s">
         <v>2228</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C66" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15" t="s">
+      <c r="G66" t="s">
         <v>2229</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A65" s="15" t="s">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="B67" t="s">
         <v>2235</v>
       </c>
-      <c r="C65" s="16" t="s">
+      <c r="C67" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="20" t="s">
+      <c r="G67" t="s">
         <v>2297</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A66" s="15" t="s">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="15" t="s">
+      <c r="B68" t="s">
         <v>2234</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C68" t="s">
         <v>30</v>
       </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="20" t="s">
+      <c r="G68" t="s">
         <v>2298</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A67" s="15" t="s">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="15" t="s">
+      <c r="B69" t="s">
+        <v>2312</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
         <v>2230</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="C71" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="20" t="s">
+      <c r="G71" t="s">
         <v>2299</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A68" s="15" t="s">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>40</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="B72" t="s">
         <v>2231</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C72" t="s">
         <v>30</v>
       </c>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="20" t="s">
+      <c r="G72" t="s">
         <v>2300</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A69" s="15" t="s">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>40</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B73" t="s">
         <v>2277</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="C73" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="20" t="s">
+      <c r="G73" t="s">
         <v>2301</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="15"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A70" s="15" t="s">
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>40</v>
       </c>
-      <c r="B70" s="15" t="s">
+      <c r="B74" t="s">
         <v>2242</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C74" t="s">
         <v>30</v>
       </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="20" t="s">
+      <c r="G74" t="s">
         <v>2302</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" s="15" t="s">
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>40</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B75" t="s">
         <v>2243</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="C75" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="20" t="s">
+      <c r="G75" t="s">
         <v>2303</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-    </row>
-    <row r="73" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="18" t="s">
+    </row>
+    <row r="77" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B77" s="17" t="s">
         <v>2232</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="74" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="18" t="s">
+    <row r="78" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="18" t="s">
+      <c r="B78" s="17" t="s">
+        <v>2316</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>2317</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" s="17" t="s">
         <v>2233</v>
       </c>
-      <c r="C74" s="18" t="s">
+      <c r="C79" s="17" t="s">
         <v>2273</v>
       </c>
     </row>
-    <row r="75" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="18" t="s">
+    <row r="80" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B75" s="18" t="s">
+      <c r="B80" s="17" t="s">
         <v>2204</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C80" s="17" t="s">
         <v>2274</v>
       </c>
     </row>
-    <row r="76" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
+    <row r="81" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B76" s="18" t="s">
+      <c r="B81" s="17" t="s">
         <v>2275</v>
       </c>
-      <c r="C76" s="18" t="s">
+      <c r="C81" s="17" t="s">
         <v>2276</v>
       </c>
     </row>
-    <row r="77" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="18" t="s">
+    <row r="82" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B82" s="17" t="s">
         <v>2247</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C82" s="17" t="s">
         <v>2307</v>
       </c>
     </row>
-    <row r="78" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="13" t="s">
+    <row r="83" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B83" s="13" t="s">
         <v>2220</v>
       </c>
     </row>
-    <row r="80" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="7" t="s">
+    <row r="85" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B85" s="10" t="s">
         <v>2280</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H85" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>56</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B86" t="s">
         <v>2281</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C86" t="s">
         <v>2306</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D86" t="s">
         <v>13</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M86" t="s">
         <v>2285</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>2283</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2282</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2305</v>
-      </c>
-      <c r="D82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>47</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2284</v>
-      </c>
-      <c r="C83" t="s">
-        <v>2304</v>
-      </c>
-      <c r="D83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B86" s="17" t="s">
-        <v>2286</v>
-      </c>
-      <c r="C86" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>56</v>
+        <v>2283</v>
       </c>
       <c r="B87" t="s">
-        <v>2287</v>
+        <v>2282</v>
       </c>
       <c r="C87" t="s">
-        <v>2289</v>
-      </c>
-      <c r="E87" t="b">
-        <v>1</v>
-      </c>
-      <c r="G87" t="s">
-        <v>2181</v>
+        <v>2305</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
@@ -8679,23 +8635,76 @@
         <v>47</v>
       </c>
       <c r="B88" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2304</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="16" t="s">
+        <v>2286</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93" t="s">
         <v>2288</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C93" t="s">
         <v>2290</v>
       </c>
-      <c r="E88" t="b">
+      <c r="E93" t="b">
         <v>1</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G93" t="s">
         <v>2291</v>
       </c>
     </row>
-    <row r="89" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="17" t="s">
+    <row r="94" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B89" s="17" t="s">
+      <c r="B94" s="16" t="s">
         <v>2286</v>
       </c>
     </row>
@@ -8937,7 +8946,7 @@
       <c r="B26" s="14" t="s">
         <v>2266</v>
       </c>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>2262</v>
       </c>
     </row>
@@ -8948,7 +8957,7 @@
       <c r="B27" s="14" t="s">
         <v>2267</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>2263</v>
       </c>
     </row>
@@ -8959,7 +8968,7 @@
       <c r="B28" s="14" t="s">
         <v>2268</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>2264</v>
       </c>
     </row>
@@ -8970,7 +8979,7 @@
       <c r="B29" s="14" t="s">
         <v>2269</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>2265</v>
       </c>
     </row>
@@ -8981,7 +8990,7 @@
       <c r="B30" s="14" t="s">
         <v>2257</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>2252</v>
       </c>
     </row>
@@ -8992,7 +9001,7 @@
       <c r="B31" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9018,7 +9027,7 @@
       <c r="C34" s="14" t="s">
         <v>2206</v>
       </c>
-      <c r="F34" s="19"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
@@ -9030,8 +9039,8 @@
       <c r="C35" s="14" t="s">
         <v>2210</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="D35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
@@ -9043,8 +9052,8 @@
       <c r="C36" s="14" t="s">
         <v>2207</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
@@ -9056,8 +9065,8 @@
       <c r="C37" s="14" t="s">
         <v>2211</v>
       </c>
-      <c r="D37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="D37" s="18"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
@@ -9069,11 +9078,11 @@
       <c r="C38" s="14" t="s">
         <v>2208</v>
       </c>
-      <c r="D38" s="19"/>
-      <c r="F38" s="19"/>
+      <c r="D38" s="18"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D39" s="19"/>
+      <c r="D39" s="18"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
@@ -9085,7 +9094,7 @@
       <c r="C40" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="19"/>
+      <c r="D40" s="18"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
